--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il17f</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05933566666666667</v>
+        <v>0.02432</v>
       </c>
       <c r="H2">
-        <v>0.178007</v>
+        <v>0.07296</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1739325296264599</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1739325296264598</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.419936333333333</v>
+        <v>1.70492</v>
       </c>
       <c r="N2">
-        <v>4.259809000000001</v>
+        <v>5.11476</v>
       </c>
       <c r="O2">
-        <v>0.03286094075819314</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="P2">
-        <v>0.03286094075819315</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="Q2">
-        <v>0.08425286896255557</v>
+        <v>0.0414636544</v>
       </c>
       <c r="R2">
-        <v>0.7582758206630001</v>
+        <v>0.3731728896</v>
       </c>
       <c r="S2">
-        <v>0.03286094075819314</v>
+        <v>0.006447103279619247</v>
       </c>
       <c r="T2">
-        <v>0.03286094075819315</v>
+        <v>0.006447103279619246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05933566666666667</v>
+        <v>0.02432</v>
       </c>
       <c r="H3">
-        <v>0.178007</v>
+        <v>0.07296</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1739325296264599</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1739325296264598</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>26.608287</v>
       </c>
       <c r="O3">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="P3">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="Q3">
-        <v>0.5262734826676667</v>
+        <v>0.21570451328</v>
       </c>
       <c r="R3">
-        <v>4.736461344009</v>
+        <v>1.94134061952</v>
       </c>
       <c r="S3">
-        <v>0.2052611614239044</v>
+        <v>0.03353947680492343</v>
       </c>
       <c r="T3">
-        <v>0.2052611614239044</v>
+        <v>0.03353947680492343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05933566666666667</v>
+        <v>0.02432</v>
       </c>
       <c r="H4">
-        <v>0.178007</v>
+        <v>0.07296</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1739325296264599</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1739325296264598</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.38275833333333</v>
+        <v>19.16401333333333</v>
       </c>
       <c r="N4">
-        <v>37.148275</v>
+        <v>57.49204</v>
       </c>
       <c r="O4">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="P4">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="Q4">
-        <v>0.7347392208805555</v>
+        <v>0.4660688042666666</v>
       </c>
       <c r="R4">
-        <v>6.612652987924999</v>
+        <v>4.1946192384</v>
       </c>
       <c r="S4">
-        <v>0.286568544280757</v>
+        <v>0.0724681352861133</v>
       </c>
       <c r="T4">
-        <v>0.286568544280757</v>
+        <v>0.07246813528611329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05933566666666667</v>
+        <v>0.02432</v>
       </c>
       <c r="H5">
-        <v>0.178007</v>
+        <v>0.07296</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1739325296264599</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1739325296264598</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.577792666666667</v>
+        <v>1.45683</v>
       </c>
       <c r="N5">
-        <v>4.733378</v>
+        <v>4.37049</v>
       </c>
       <c r="O5">
-        <v>0.0365141380855655</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="P5">
-        <v>0.03651413808556551</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="Q5">
-        <v>0.09361937973844445</v>
+        <v>0.0354301056</v>
       </c>
       <c r="R5">
-        <v>0.8425744176460001</v>
+        <v>0.3188709504</v>
       </c>
       <c r="S5">
-        <v>0.0365141380855655</v>
+        <v>0.005508958467756673</v>
       </c>
       <c r="T5">
-        <v>0.03651413808556551</v>
+        <v>0.005508958467756672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02432</v>
+      </c>
+      <c r="H6">
+        <v>0.07296</v>
+      </c>
+      <c r="I6">
+        <v>0.1739325296264599</v>
+      </c>
+      <c r="J6">
+        <v>0.1739325296264598</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>14.800821</v>
+      </c>
+      <c r="N6">
+        <v>44.402463</v>
+      </c>
+      <c r="O6">
+        <v>0.321784866282614</v>
+      </c>
+      <c r="P6">
+        <v>0.321784866282614</v>
+      </c>
+      <c r="Q6">
+        <v>0.35995596672</v>
+      </c>
+      <c r="R6">
+        <v>3.23960370048</v>
+      </c>
+      <c r="S6">
+        <v>0.05596885578804718</v>
+      </c>
+      <c r="T6">
+        <v>0.05596885578804717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.09200133333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.276004</v>
+      </c>
+      <c r="I7">
+        <v>0.6579779866642192</v>
+      </c>
+      <c r="J7">
+        <v>0.6579779866642191</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.70492</v>
+      </c>
+      <c r="N7">
+        <v>5.11476</v>
+      </c>
+      <c r="O7">
+        <v>0.03706669070739754</v>
+      </c>
+      <c r="P7">
+        <v>0.03706669070739754</v>
+      </c>
+      <c r="Q7">
+        <v>0.1568549132266667</v>
+      </c>
+      <c r="R7">
+        <v>1.41169421904</v>
+      </c>
+      <c r="S7">
+        <v>0.02438906652395876</v>
+      </c>
+      <c r="T7">
+        <v>0.02438906652395876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09200133333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.276004</v>
+      </c>
+      <c r="I8">
+        <v>0.6579779866642192</v>
+      </c>
+      <c r="J8">
+        <v>0.6579779866642191</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.869429</v>
+      </c>
+      <c r="N8">
+        <v>26.608287</v>
+      </c>
+      <c r="O8">
+        <v>0.1928303858798197</v>
+      </c>
+      <c r="P8">
+        <v>0.1928303858798197</v>
+      </c>
+      <c r="Q8">
+        <v>0.8159992939053334</v>
+      </c>
+      <c r="R8">
+        <v>7.343993645148001</v>
+      </c>
+      <c r="S8">
+        <v>0.1268781490688883</v>
+      </c>
+      <c r="T8">
+        <v>0.1268781490688883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09200133333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.276004</v>
+      </c>
+      <c r="I9">
+        <v>0.6579779866642192</v>
+      </c>
+      <c r="J9">
+        <v>0.6579779866642191</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.16401333333333</v>
+      </c>
+      <c r="N9">
+        <v>57.49204</v>
+      </c>
+      <c r="O9">
+        <v>0.4166450947487912</v>
+      </c>
+      <c r="P9">
+        <v>0.4166450947487912</v>
+      </c>
+      <c r="Q9">
+        <v>1.763114778684445</v>
+      </c>
+      <c r="R9">
+        <v>15.86803300816</v>
+      </c>
+      <c r="S9">
+        <v>0.2741433005963325</v>
+      </c>
+      <c r="T9">
+        <v>0.2741433005963325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09200133333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.276004</v>
+      </c>
+      <c r="I10">
+        <v>0.6579779866642192</v>
+      </c>
+      <c r="J10">
+        <v>0.6579779866642191</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.45683</v>
+      </c>
+      <c r="N10">
+        <v>4.37049</v>
+      </c>
+      <c r="O10">
+        <v>0.0316729623813774</v>
+      </c>
+      <c r="P10">
+        <v>0.0316729623813774</v>
+      </c>
+      <c r="Q10">
+        <v>0.13403030244</v>
+      </c>
+      <c r="R10">
+        <v>1.20627272196</v>
+      </c>
+      <c r="S10">
+        <v>0.02084011201939026</v>
+      </c>
+      <c r="T10">
+        <v>0.02084011201939025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09200133333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.276004</v>
+      </c>
+      <c r="I11">
+        <v>0.6579779866642192</v>
+      </c>
+      <c r="J11">
+        <v>0.6579779866642191</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.800821</v>
+      </c>
+      <c r="N11">
+        <v>44.402463</v>
+      </c>
+      <c r="O11">
+        <v>0.321784866282614</v>
+      </c>
+      <c r="P11">
+        <v>0.321784866282614</v>
+      </c>
+      <c r="Q11">
+        <v>1.361695266428</v>
+      </c>
+      <c r="R11">
+        <v>12.255257397852</v>
+      </c>
+      <c r="S11">
+        <v>0.2117273584556494</v>
+      </c>
+      <c r="T11">
+        <v>0.2117273584556493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.023503</v>
+      </c>
+      <c r="H12">
+        <v>0.070509</v>
+      </c>
+      <c r="I12">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="J12">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.70492</v>
+      </c>
+      <c r="N12">
+        <v>5.11476</v>
+      </c>
+      <c r="O12">
+        <v>0.03706669070739754</v>
+      </c>
+      <c r="P12">
+        <v>0.03706669070739754</v>
+      </c>
+      <c r="Q12">
+        <v>0.04007073476</v>
+      </c>
+      <c r="R12">
+        <v>0.36063661284</v>
+      </c>
+      <c r="S12">
+        <v>0.006230520903819538</v>
+      </c>
+      <c r="T12">
+        <v>0.006230520903819538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.05933566666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.178007</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>18.96054266666667</v>
-      </c>
-      <c r="N6">
-        <v>56.88162800000001</v>
-      </c>
-      <c r="O6">
-        <v>0.4387952154515801</v>
-      </c>
-      <c r="P6">
-        <v>0.4387952154515802</v>
-      </c>
-      <c r="Q6">
-        <v>1.125036439488445</v>
-      </c>
-      <c r="R6">
-        <v>10.125327955396</v>
-      </c>
-      <c r="S6">
-        <v>0.4387952154515801</v>
-      </c>
-      <c r="T6">
-        <v>0.4387952154515802</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.023503</v>
+      </c>
+      <c r="H13">
+        <v>0.070509</v>
+      </c>
+      <c r="I13">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="J13">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.869429</v>
+      </c>
+      <c r="N13">
+        <v>26.608287</v>
+      </c>
+      <c r="O13">
+        <v>0.1928303858798197</v>
+      </c>
+      <c r="P13">
+        <v>0.1928303858798197</v>
+      </c>
+      <c r="Q13">
+        <v>0.208458189787</v>
+      </c>
+      <c r="R13">
+        <v>1.876123708083</v>
+      </c>
+      <c r="S13">
+        <v>0.03241276000600803</v>
+      </c>
+      <c r="T13">
+        <v>0.03241276000600803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.023503</v>
+      </c>
+      <c r="H14">
+        <v>0.070509</v>
+      </c>
+      <c r="I14">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="J14">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.16401333333333</v>
+      </c>
+      <c r="N14">
+        <v>57.49204</v>
+      </c>
+      <c r="O14">
+        <v>0.4166450947487912</v>
+      </c>
+      <c r="P14">
+        <v>0.4166450947487912</v>
+      </c>
+      <c r="Q14">
+        <v>0.4504118053733333</v>
+      </c>
+      <c r="R14">
+        <v>4.05370624836</v>
+      </c>
+      <c r="S14">
+        <v>0.07003365886634544</v>
+      </c>
+      <c r="T14">
+        <v>0.07003365886634542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.023503</v>
+      </c>
+      <c r="H15">
+        <v>0.070509</v>
+      </c>
+      <c r="I15">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="J15">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.45683</v>
+      </c>
+      <c r="N15">
+        <v>4.37049</v>
+      </c>
+      <c r="O15">
+        <v>0.0316729623813774</v>
+      </c>
+      <c r="P15">
+        <v>0.0316729623813774</v>
+      </c>
+      <c r="Q15">
+        <v>0.03423987549</v>
+      </c>
+      <c r="R15">
+        <v>0.30815887941</v>
+      </c>
+      <c r="S15">
+        <v>0.005323891894230473</v>
+      </c>
+      <c r="T15">
+        <v>0.005323891894230473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.023503</v>
+      </c>
+      <c r="H16">
+        <v>0.070509</v>
+      </c>
+      <c r="I16">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="J16">
+        <v>0.168089483709321</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.800821</v>
+      </c>
+      <c r="N16">
+        <v>44.402463</v>
+      </c>
+      <c r="O16">
+        <v>0.321784866282614</v>
+      </c>
+      <c r="P16">
+        <v>0.321784866282614</v>
+      </c>
+      <c r="Q16">
+        <v>0.347863695963</v>
+      </c>
+      <c r="R16">
+        <v>3.130773263667</v>
+      </c>
+      <c r="S16">
+        <v>0.05408865203891747</v>
+      </c>
+      <c r="T16">
+        <v>0.05408865203891747</v>
       </c>
     </row>
   </sheetData>
